--- a/FindFiles Feature Matrix.xlsx
+++ b/FindFiles Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>Feature</t>
   </si>
@@ -310,6 +310,15 @@
   <si>
     <t>ETA:</t>
   </si>
+  <si>
+    <t>0.00.7</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>new window</t>
+  </si>
 </sst>
 </file>
 
@@ -573,7 +582,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955213"/>
+          <c:w val="0.91978071330955224"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -606,29 +615,35 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42896</c:v>
+                  <c:v>42890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$49</c:f>
+              <c:f>Progress!$B$48:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -662,30 +677,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42896</c:v>
+                  <c:v>42890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$49</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,29 +739,35 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42896</c:v>
+                  <c:v>42890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$49</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -774,9 +801,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$49</c:f>
+              <c:f>Progress!$A$47:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -784,32 +811,38 @@
                   <c:v>2017-04-12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2017-06-10</c:v>
+                  <c:v>2017-06-04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017-06-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$49</c:f>
+              <c:f>Progress!$E$48:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="132476928"/>
-        <c:axId val="132478464"/>
+        <c:axId val="129473920"/>
+        <c:axId val="129238144"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="132476928"/>
+        <c:axId val="129473920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132478464"/>
+        <c:crossAx val="129238144"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -852,7 +885,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="132478464"/>
+        <c:axId val="129238144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132476928"/>
+        <c:crossAx val="129473920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -917,7 +950,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844592"/>
+          <c:y val="0.37277147487844597"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -984,7 +1017,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1038,7 +1071,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127581E-2"/>
+          <c:x val="4.4510450248127595E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1073,40 +1106,46 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42896</c:v>
+                  <c:v>42890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$49</c:f>
+              <c:f>Progress!$G$48:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.35897435897435898</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="132502272"/>
-        <c:axId val="132503808"/>
+        <c:axId val="129270144"/>
+        <c:axId val="129271680"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="132502272"/>
+        <c:axId val="129270144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,13 +1153,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="132503808"/>
+        <c:crossAx val="129271680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="132503808"/>
+        <c:axId val="129271680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1163,7 +1202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132502272"/>
+        <c:crossAx val="129270144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1212,7 +1251,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1263,30 +1302,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42896</c:v>
+                  <c:v>42890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$49</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,40 +1364,46 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42896</c:v>
+                  <c:v>42890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$49</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="132356352"/>
-        <c:axId val="132358144"/>
+        <c:axId val="129288448"/>
+        <c:axId val="129290240"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="132356352"/>
+        <c:axId val="129288448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,15 +1436,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132358144"/>
+        <c:crossAx val="129290240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="132358144"/>
+        <c:axId val="129290240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132356352"/>
+        <c:crossAx val="129288448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,7 +1533,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1534,7 +1583,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1942,10 +1991,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2108,7 +2157,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="20" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
@@ -2117,25 +2166,25 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="23" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="23" t="s">
-        <v>56</v>
+      <c r="B24" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="23" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2144,7 +2193,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2153,7 +2202,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="23" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>14</v>
@@ -2161,31 +2210,31 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="23"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:4" s="6" customFormat="1">
+      <c r="B30" s="23"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" s="6" customFormat="1">
+      <c r="B31" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2193,47 +2242,49 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="23" t="s">
-        <v>61</v>
+      <c r="B32" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="2:4" s="6" customFormat="1">
+      <c r="B34" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:4" s="6" customFormat="1">
+      <c r="B35" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="22"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="B36" s="22"/>
       <c r="C36" s="7"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="23" t="s">
-        <v>36</v>
+      <c r="B37" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2241,17 +2292,15 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B38" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
       <c r="B39" s="23" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2260,7 +2309,7 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2268,8 +2317,8 @@
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="20" t="s">
-        <v>74</v>
+      <c r="B41" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
@@ -2277,40 +2326,40 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="2:4" s="6" customFormat="1">
+      <c r="B43" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:4" s="6" customFormat="1">
+      <c r="B44" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="22"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="27" t="s">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:4" s="6" customFormat="1">
+      <c r="B45" s="22"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="2:4" s="6" customFormat="1">
+      <c r="B46" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2318,8 +2367,8 @@
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="23" t="s">
-        <v>68</v>
+      <c r="B47" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -2328,7 +2377,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2337,57 +2386,57 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" s="6" customFormat="1">
+      <c r="B50" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4" s="6" customFormat="1">
+      <c r="B51" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="23" t="s">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" s="6" customFormat="1">
+      <c r="B52" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="27" t="s">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" s="6" customFormat="1">
+      <c r="B53" s="22"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:4" s="6" customFormat="1">
+      <c r="B54" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="20" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -2395,13 +2444,17 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="22" t="s">
-        <v>51</v>
+      <c r="B57" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -2409,28 +2462,30 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="2:4" s="6" customFormat="1">
+      <c r="B59" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="2:4" s="6" customFormat="1">
+      <c r="B60" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="7"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="B61" s="22"/>
       <c r="C61" s="7"/>
       <c r="D61" s="4"/>
     </row>
@@ -2440,12 +2495,10 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="7"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
@@ -2455,7 +2508,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -2468,8 +2521,12 @@
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
@@ -2503,26 +2560,18 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="22"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1">
+      <c r="B75" s="22"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -2530,8 +2579,8 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="20" t="s">
-        <v>80</v>
+      <c r="B77" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -2540,7 +2589,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -2548,13 +2597,17 @@
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22" t="s">
-        <v>84</v>
+      <c r="B80" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -2562,17 +2615,13 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20" t="s">
-        <v>83</v>
+      <c r="B82" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -2581,7 +2630,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -2590,7 +2639,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2599,7 +2648,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -2608,7 +2657,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -2616,13 +2665,17 @@
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22" t="s">
-        <v>89</v>
+      <c r="B88" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -2630,31 +2683,31 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="22"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1">
+      <c r="B90" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" s="6" customFormat="1">
+      <c r="B91" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="7"/>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
@@ -2663,8 +2716,8 @@
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22" t="s">
-        <v>40</v>
+      <c r="B94" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -2672,17 +2725,13 @@
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="20" t="s">
-        <v>42</v>
+      <c r="B96" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -2690,13 +2739,17 @@
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="7"/>
+      <c r="B97" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22" t="s">
-        <v>48</v>
+      <c r="B98" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -2709,31 +2762,27 @@
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="20"/>
-      <c r="C100" s="7"/>
+      <c r="B100" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="22"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="2:4" s="6" customFormat="1">
+      <c r="B102" s="20"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="2:4" s="6" customFormat="1">
+      <c r="B103" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -2742,7 +2791,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -2750,36 +2799,36 @@
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="22"/>
-      <c r="C106" s="7"/>
+      <c r="B106" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="22"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" s="6" customFormat="1">
+      <c r="B108" s="22"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" s="6" customFormat="1">
+      <c r="B109" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -2788,7 +2837,7 @@
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
       <c r="B110" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>14</v>
@@ -2796,187 +2845,205 @@
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="43"/>
-      <c r="C111" s="4"/>
+      <c r="B111" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="43"/>
-      <c r="C112" s="4"/>
+      <c r="B112" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" s="6" customFormat="1">
-      <c r="B113" s="3" t="s">
+    <row r="113" spans="2:4" s="6" customFormat="1">
+      <c r="B113" s="43"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="2:4" s="6" customFormat="1">
+      <c r="B114" s="43"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="2:4" s="6" customFormat="1">
+      <c r="B115" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" s="6" customFormat="1">
-      <c r="B114" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" s="6" customFormat="1">
-      <c r="B115" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" s="6" customFormat="1">
+    <row r="116" spans="2:4" s="6" customFormat="1">
       <c r="B116" s="22" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" s="6" customFormat="1">
+    <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" s="6" customFormat="1">
-      <c r="B118" s="43"/>
-      <c r="C118" s="4"/>
+    <row r="118" spans="2:4" s="6" customFormat="1">
+      <c r="B118" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" s="6" customFormat="1">
-      <c r="B119" s="21"/>
-      <c r="C119" s="4"/>
+    <row r="119" spans="2:4" s="6" customFormat="1">
+      <c r="B119" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" s="6" customFormat="1">
-      <c r="B120" s="3" t="s">
+    <row r="120" spans="2:4" s="6" customFormat="1">
+      <c r="B120" s="43"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:4" s="6" customFormat="1">
+      <c r="B121" s="21"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" s="6" customFormat="1">
+      <c r="B122" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" s="6" customFormat="1">
-      <c r="B121" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" s="6" customFormat="1">
-      <c r="B122" s="22" t="s">
-        <v>21</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" s="6" customFormat="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="4"/>
+    <row r="123" spans="2:4" s="6" customFormat="1">
+      <c r="B123" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" s="6" customFormat="1">
-      <c r="B124" s="19"/>
-      <c r="C124" s="4"/>
+    <row r="124" spans="2:4" s="6" customFormat="1">
+      <c r="B124" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" s="6" customFormat="1">
-      <c r="B125" s="21"/>
+    <row r="125" spans="2:4" s="6" customFormat="1">
+      <c r="B125" s="22"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" s="6" customFormat="1">
-      <c r="B126" s="21"/>
+    <row r="126" spans="2:4" s="6" customFormat="1">
+      <c r="B126" s="19"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="3"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="3"/>
-      <c r="B128" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" s="6">
-        <f>COUNTIF(C5:C127,"y")</f>
-        <v>28</v>
-      </c>
-      <c r="D128" s="2"/>
+    <row r="127" spans="2:4" s="6" customFormat="1">
+      <c r="B127" s="21"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="21"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="3"/>
-      <c r="B129" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="6">
-        <f>COUNTIF(C5:C127,"n")</f>
-        <v>50</v>
-      </c>
-      <c r="D129" s="2"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="3"/>
       <c r="B130" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="7">
-        <f>COUNTIF(C5:C127,"TBD")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C130" s="6">
+        <f>COUNTIF(C5:C129,"y")</f>
+        <v>30</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="3"/>
       <c r="B131" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131">
-        <f>SUM(C128:C130)</f>
-        <v>78</v>
+        <v>7</v>
+      </c>
+      <c r="C131" s="6">
+        <f>COUNTIF(C5:C129,"n")</f>
+        <v>50</v>
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" ht="18">
+    <row r="132" spans="1:4">
       <c r="A132" s="3"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="41">
-        <f>C128/(C129+C128 + C130)</f>
-        <v>0.35897435897435898</v>
-      </c>
+      <c r="B132" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="7">
+        <f>COUNTIF(C5:C129,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="3"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="3"/>
+      <c r="B133" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <f>SUM(C130:C132)</f>
+        <v>80</v>
+      </c>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" ht="18">
+      <c r="A134" s="3"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="41">
+        <f>C130/(C131+C130 + C132)</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64881">
+  <conditionalFormatting sqref="C1:C3 C6:C64883">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -2998,12 +3065,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT863"/>
+  <dimension ref="A1:IT864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3264,7 +3331,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="48">
-        <v>42896</v>
+        <v>42890</v>
       </c>
       <c r="B49" s="4">
         <v>28</v>
@@ -3279,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -3288,13 +3355,28 @@
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="49"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="30"/>
+      <c r="A50" s="48">
+        <v>42910</v>
+      </c>
+      <c r="B50" s="4">
+        <v>28</v>
+      </c>
+      <c r="C50" s="4">
+        <v>52</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="30">
+        <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
+        <v>0.35</v>
+      </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10">
@@ -3303,83 +3385,83 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="31"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="30"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="49"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="38">
-        <f>MIN(G49)</f>
-        <v>0.35897435897435898</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="39">
-        <f>SUM(B53:D53)</f>
-        <v>78</v>
-      </c>
-      <c r="B53" s="15">
-        <f>Features!C128</f>
-        <v>28</v>
-      </c>
-      <c r="C53" s="16">
-        <f>Features!C129</f>
+      <c r="G53" s="38">
+        <f>MIN(G50)</f>
+        <v>0.35</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="39">
+        <f>SUM(B54:D54)</f>
+        <v>80</v>
+      </c>
+      <c r="B54" s="15">
+        <f>Features!C130</f>
+        <v>30</v>
+      </c>
+      <c r="C54" s="16">
+        <f>Features!C131</f>
         <v>50</v>
       </c>
-      <c r="D53" s="17">
-        <f>Features!C130</f>
+      <c r="D54" s="17">
+        <f>Features!C132</f>
         <v>0</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E54" s="18">
         <v>0</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="30"/>
       <c r="H54" s="7"/>
-      <c r="J54" s="36"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
+      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -3388,13 +3470,8 @@
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="51">
-        <f>A48+A53/B53*(A49-A48)</f>
-        <v>43001.357142857145</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -3403,8 +3480,13 @@
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="51">
+        <f>A48+A54/B54*(A50-A48)</f>
+        <v>43031.666666666664</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -3414,7 +3496,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -3434,7 +3516,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -3454,7 +3536,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="4"/>
-      <c r="B63" s="7"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3464,7 +3546,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3483,7 +3565,7 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="20"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
@@ -3494,7 +3576,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3625,7 +3707,7 @@
     <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -3634,7 +3716,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -3642,15 +3724,15 @@
       <c r="G81" s="30"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="4"/>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1">
       <c r="A83" s="4"/>
@@ -3824,7 +3906,7 @@
     </row>
     <row r="100" spans="1:8" s="2" customFormat="1">
       <c r="A100" s="4"/>
-      <c r="B100" s="6"/>
+      <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -3834,7 +3916,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -3864,7 +3946,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -3904,7 +3986,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="21"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -3914,7 +3996,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -3924,7 +4006,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -3934,7 +4016,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3944,7 +4026,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3964,7 +4046,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4024,7 +4106,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4124,7 +4206,7 @@
     </row>
     <row r="130" spans="1:254" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -4174,7 +4256,7 @@
     </row>
     <row r="135" spans="1:254" s="2" customFormat="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="19"/>
+      <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -4194,7 +4276,7 @@
     </row>
     <row r="137" spans="1:254" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -4233,284 +4315,284 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:254" s="2" customFormat="1">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
-      <c r="AA141" s="5"/>
-      <c r="AB141" s="5"/>
-      <c r="AC141" s="5"/>
-      <c r="AD141" s="5"/>
-      <c r="AE141" s="5"/>
-      <c r="AF141" s="5"/>
-      <c r="AG141" s="5"/>
-      <c r="AH141" s="5"/>
-      <c r="AI141" s="5"/>
-      <c r="AJ141" s="5"/>
-      <c r="AK141" s="5"/>
-      <c r="AL141" s="5"/>
-      <c r="AM141" s="5"/>
-      <c r="AN141" s="5"/>
-      <c r="AO141" s="5"/>
-      <c r="AP141" s="5"/>
-      <c r="AQ141" s="5"/>
-      <c r="AR141" s="5"/>
-      <c r="AS141" s="5"/>
-      <c r="AT141" s="5"/>
-      <c r="AU141" s="5"/>
-      <c r="AV141" s="5"/>
-      <c r="AW141" s="5"/>
-      <c r="AX141" s="5"/>
-      <c r="AY141" s="5"/>
-      <c r="AZ141" s="5"/>
-      <c r="BA141" s="5"/>
-      <c r="BB141" s="5"/>
-      <c r="BC141" s="5"/>
-      <c r="BD141" s="5"/>
-      <c r="BE141" s="5"/>
-      <c r="BF141" s="5"/>
-      <c r="BG141" s="5"/>
-      <c r="BH141" s="5"/>
-      <c r="BI141" s="5"/>
-      <c r="BJ141" s="5"/>
-      <c r="BK141" s="5"/>
-      <c r="BL141" s="5"/>
-      <c r="BM141" s="5"/>
-      <c r="BN141" s="5"/>
-      <c r="BO141" s="5"/>
-      <c r="BP141" s="5"/>
-      <c r="BQ141" s="5"/>
-      <c r="BR141" s="5"/>
-      <c r="BS141" s="5"/>
-      <c r="BT141" s="5"/>
-      <c r="BU141" s="5"/>
-      <c r="BV141" s="5"/>
-      <c r="BW141" s="5"/>
-      <c r="BX141" s="5"/>
-      <c r="BY141" s="5"/>
-      <c r="BZ141" s="5"/>
-      <c r="CA141" s="5"/>
-      <c r="CB141" s="5"/>
-      <c r="CC141" s="5"/>
-      <c r="CD141" s="5"/>
-      <c r="CE141" s="5"/>
-      <c r="CF141" s="5"/>
-      <c r="CG141" s="5"/>
-      <c r="CH141" s="5"/>
-      <c r="CI141" s="5"/>
-      <c r="CJ141" s="5"/>
-      <c r="CK141" s="5"/>
-      <c r="CL141" s="5"/>
-      <c r="CM141" s="5"/>
-      <c r="CN141" s="5"/>
-      <c r="CO141" s="5"/>
-      <c r="CP141" s="5"/>
-      <c r="CQ141" s="5"/>
-      <c r="CR141" s="5"/>
-      <c r="CS141" s="5"/>
-      <c r="CT141" s="5"/>
-      <c r="CU141" s="5"/>
-      <c r="CV141" s="5"/>
-      <c r="CW141" s="5"/>
-      <c r="CX141" s="5"/>
-      <c r="CY141" s="5"/>
-      <c r="CZ141" s="5"/>
-      <c r="DA141" s="5"/>
-      <c r="DB141" s="5"/>
-      <c r="DC141" s="5"/>
-      <c r="DD141" s="5"/>
-      <c r="DE141" s="5"/>
-      <c r="DF141" s="5"/>
-      <c r="DG141" s="5"/>
-      <c r="DH141" s="5"/>
-      <c r="DI141" s="5"/>
-      <c r="DJ141" s="5"/>
-      <c r="DK141" s="5"/>
-      <c r="DL141" s="5"/>
-      <c r="DM141" s="5"/>
-      <c r="DN141" s="5"/>
-      <c r="DO141" s="5"/>
-      <c r="DP141" s="5"/>
-      <c r="DQ141" s="5"/>
-      <c r="DR141" s="5"/>
-      <c r="DS141" s="5"/>
-      <c r="DT141" s="5"/>
-      <c r="DU141" s="5"/>
-      <c r="DV141" s="5"/>
-      <c r="DW141" s="5"/>
-      <c r="DX141" s="5"/>
-      <c r="DY141" s="5"/>
-      <c r="DZ141" s="5"/>
-      <c r="EA141" s="5"/>
-      <c r="EB141" s="5"/>
-      <c r="EC141" s="5"/>
-      <c r="ED141" s="5"/>
-      <c r="EE141" s="5"/>
-      <c r="EF141" s="5"/>
-      <c r="EG141" s="5"/>
-      <c r="EH141" s="5"/>
-      <c r="EI141" s="5"/>
-      <c r="EJ141" s="5"/>
-      <c r="EK141" s="5"/>
-      <c r="EL141" s="5"/>
-      <c r="EM141" s="5"/>
-      <c r="EN141" s="5"/>
-      <c r="EO141" s="5"/>
-      <c r="EP141" s="5"/>
-      <c r="EQ141" s="5"/>
-      <c r="ER141" s="5"/>
-      <c r="ES141" s="5"/>
-      <c r="ET141" s="5"/>
-      <c r="EU141" s="5"/>
-      <c r="EV141" s="5"/>
-      <c r="EW141" s="5"/>
-      <c r="EX141" s="5"/>
-      <c r="EY141" s="5"/>
-      <c r="EZ141" s="5"/>
-      <c r="FA141" s="5"/>
-      <c r="FB141" s="5"/>
-      <c r="FC141" s="5"/>
-      <c r="FD141" s="5"/>
-      <c r="FE141" s="5"/>
-      <c r="FF141" s="5"/>
-      <c r="FG141" s="5"/>
-      <c r="FH141" s="5"/>
-      <c r="FI141" s="5"/>
-      <c r="FJ141" s="5"/>
-      <c r="FK141" s="5"/>
-      <c r="FL141" s="5"/>
-      <c r="FM141" s="5"/>
-      <c r="FN141" s="5"/>
-      <c r="FO141" s="5"/>
-      <c r="FP141" s="5"/>
-      <c r="FQ141" s="5"/>
-      <c r="FR141" s="5"/>
-      <c r="FS141" s="5"/>
-      <c r="FT141" s="5"/>
-      <c r="FU141" s="5"/>
-      <c r="FV141" s="5"/>
-      <c r="FW141" s="5"/>
-      <c r="FX141" s="5"/>
-      <c r="FY141" s="5"/>
-      <c r="FZ141" s="5"/>
-      <c r="GA141" s="5"/>
-      <c r="GB141" s="5"/>
-      <c r="GC141" s="5"/>
-      <c r="GD141" s="5"/>
-      <c r="GE141" s="5"/>
-      <c r="GF141" s="5"/>
-      <c r="GG141" s="5"/>
-      <c r="GH141" s="5"/>
-      <c r="GI141" s="5"/>
-      <c r="GJ141" s="5"/>
-      <c r="GK141" s="5"/>
-      <c r="GL141" s="5"/>
-      <c r="GM141" s="5"/>
-      <c r="GN141" s="5"/>
-      <c r="GO141" s="5"/>
-      <c r="GP141" s="5"/>
-      <c r="GQ141" s="5"/>
-      <c r="GR141" s="5"/>
-      <c r="GS141" s="5"/>
-      <c r="GT141" s="5"/>
-      <c r="GU141" s="5"/>
-      <c r="GV141" s="5"/>
-      <c r="GW141" s="5"/>
-      <c r="GX141" s="5"/>
-      <c r="GY141" s="5"/>
-      <c r="GZ141" s="5"/>
-      <c r="HA141" s="5"/>
-      <c r="HB141" s="5"/>
-      <c r="HC141" s="5"/>
-      <c r="HD141" s="5"/>
-      <c r="HE141" s="5"/>
-      <c r="HF141" s="5"/>
-      <c r="HG141" s="5"/>
-      <c r="HH141" s="5"/>
-      <c r="HI141" s="5"/>
-      <c r="HJ141" s="5"/>
-      <c r="HK141" s="5"/>
-      <c r="HL141" s="5"/>
-      <c r="HM141" s="5"/>
-      <c r="HN141" s="5"/>
-      <c r="HO141" s="5"/>
-      <c r="HP141" s="5"/>
-      <c r="HQ141" s="5"/>
-      <c r="HR141" s="5"/>
-      <c r="HS141" s="5"/>
-      <c r="HT141" s="5"/>
-      <c r="HU141" s="5"/>
-      <c r="HV141" s="5"/>
-      <c r="HW141" s="5"/>
-      <c r="HX141" s="5"/>
-      <c r="HY141" s="5"/>
-      <c r="HZ141" s="5"/>
-      <c r="IA141" s="5"/>
-      <c r="IB141" s="5"/>
-      <c r="IC141" s="5"/>
-      <c r="ID141" s="5"/>
-      <c r="IE141" s="5"/>
-      <c r="IF141" s="5"/>
-      <c r="IG141" s="5"/>
-      <c r="IH141" s="5"/>
-      <c r="II141" s="5"/>
-      <c r="IJ141" s="5"/>
-      <c r="IK141" s="5"/>
-      <c r="IL141" s="5"/>
-      <c r="IM141" s="5"/>
-      <c r="IN141" s="5"/>
-      <c r="IO141" s="5"/>
-      <c r="IP141" s="5"/>
-      <c r="IQ141" s="5"/>
-      <c r="IR141" s="5"/>
-      <c r="IS141" s="5"/>
-      <c r="IT141" s="5"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:254" s="2" customFormat="1">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:254">
-      <c r="A143" s="7"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="7"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+      <c r="AJ142" s="5"/>
+      <c r="AK142" s="5"/>
+      <c r="AL142" s="5"/>
+      <c r="AM142" s="5"/>
+      <c r="AN142" s="5"/>
+      <c r="AO142" s="5"/>
+      <c r="AP142" s="5"/>
+      <c r="AQ142" s="5"/>
+      <c r="AR142" s="5"/>
+      <c r="AS142" s="5"/>
+      <c r="AT142" s="5"/>
+      <c r="AU142" s="5"/>
+      <c r="AV142" s="5"/>
+      <c r="AW142" s="5"/>
+      <c r="AX142" s="5"/>
+      <c r="AY142" s="5"/>
+      <c r="AZ142" s="5"/>
+      <c r="BA142" s="5"/>
+      <c r="BB142" s="5"/>
+      <c r="BC142" s="5"/>
+      <c r="BD142" s="5"/>
+      <c r="BE142" s="5"/>
+      <c r="BF142" s="5"/>
+      <c r="BG142" s="5"/>
+      <c r="BH142" s="5"/>
+      <c r="BI142" s="5"/>
+      <c r="BJ142" s="5"/>
+      <c r="BK142" s="5"/>
+      <c r="BL142" s="5"/>
+      <c r="BM142" s="5"/>
+      <c r="BN142" s="5"/>
+      <c r="BO142" s="5"/>
+      <c r="BP142" s="5"/>
+      <c r="BQ142" s="5"/>
+      <c r="BR142" s="5"/>
+      <c r="BS142" s="5"/>
+      <c r="BT142" s="5"/>
+      <c r="BU142" s="5"/>
+      <c r="BV142" s="5"/>
+      <c r="BW142" s="5"/>
+      <c r="BX142" s="5"/>
+      <c r="BY142" s="5"/>
+      <c r="BZ142" s="5"/>
+      <c r="CA142" s="5"/>
+      <c r="CB142" s="5"/>
+      <c r="CC142" s="5"/>
+      <c r="CD142" s="5"/>
+      <c r="CE142" s="5"/>
+      <c r="CF142" s="5"/>
+      <c r="CG142" s="5"/>
+      <c r="CH142" s="5"/>
+      <c r="CI142" s="5"/>
+      <c r="CJ142" s="5"/>
+      <c r="CK142" s="5"/>
+      <c r="CL142" s="5"/>
+      <c r="CM142" s="5"/>
+      <c r="CN142" s="5"/>
+      <c r="CO142" s="5"/>
+      <c r="CP142" s="5"/>
+      <c r="CQ142" s="5"/>
+      <c r="CR142" s="5"/>
+      <c r="CS142" s="5"/>
+      <c r="CT142" s="5"/>
+      <c r="CU142" s="5"/>
+      <c r="CV142" s="5"/>
+      <c r="CW142" s="5"/>
+      <c r="CX142" s="5"/>
+      <c r="CY142" s="5"/>
+      <c r="CZ142" s="5"/>
+      <c r="DA142" s="5"/>
+      <c r="DB142" s="5"/>
+      <c r="DC142" s="5"/>
+      <c r="DD142" s="5"/>
+      <c r="DE142" s="5"/>
+      <c r="DF142" s="5"/>
+      <c r="DG142" s="5"/>
+      <c r="DH142" s="5"/>
+      <c r="DI142" s="5"/>
+      <c r="DJ142" s="5"/>
+      <c r="DK142" s="5"/>
+      <c r="DL142" s="5"/>
+      <c r="DM142" s="5"/>
+      <c r="DN142" s="5"/>
+      <c r="DO142" s="5"/>
+      <c r="DP142" s="5"/>
+      <c r="DQ142" s="5"/>
+      <c r="DR142" s="5"/>
+      <c r="DS142" s="5"/>
+      <c r="DT142" s="5"/>
+      <c r="DU142" s="5"/>
+      <c r="DV142" s="5"/>
+      <c r="DW142" s="5"/>
+      <c r="DX142" s="5"/>
+      <c r="DY142" s="5"/>
+      <c r="DZ142" s="5"/>
+      <c r="EA142" s="5"/>
+      <c r="EB142" s="5"/>
+      <c r="EC142" s="5"/>
+      <c r="ED142" s="5"/>
+      <c r="EE142" s="5"/>
+      <c r="EF142" s="5"/>
+      <c r="EG142" s="5"/>
+      <c r="EH142" s="5"/>
+      <c r="EI142" s="5"/>
+      <c r="EJ142" s="5"/>
+      <c r="EK142" s="5"/>
+      <c r="EL142" s="5"/>
+      <c r="EM142" s="5"/>
+      <c r="EN142" s="5"/>
+      <c r="EO142" s="5"/>
+      <c r="EP142" s="5"/>
+      <c r="EQ142" s="5"/>
+      <c r="ER142" s="5"/>
+      <c r="ES142" s="5"/>
+      <c r="ET142" s="5"/>
+      <c r="EU142" s="5"/>
+      <c r="EV142" s="5"/>
+      <c r="EW142" s="5"/>
+      <c r="EX142" s="5"/>
+      <c r="EY142" s="5"/>
+      <c r="EZ142" s="5"/>
+      <c r="FA142" s="5"/>
+      <c r="FB142" s="5"/>
+      <c r="FC142" s="5"/>
+      <c r="FD142" s="5"/>
+      <c r="FE142" s="5"/>
+      <c r="FF142" s="5"/>
+      <c r="FG142" s="5"/>
+      <c r="FH142" s="5"/>
+      <c r="FI142" s="5"/>
+      <c r="FJ142" s="5"/>
+      <c r="FK142" s="5"/>
+      <c r="FL142" s="5"/>
+      <c r="FM142" s="5"/>
+      <c r="FN142" s="5"/>
+      <c r="FO142" s="5"/>
+      <c r="FP142" s="5"/>
+      <c r="FQ142" s="5"/>
+      <c r="FR142" s="5"/>
+      <c r="FS142" s="5"/>
+      <c r="FT142" s="5"/>
+      <c r="FU142" s="5"/>
+      <c r="FV142" s="5"/>
+      <c r="FW142" s="5"/>
+      <c r="FX142" s="5"/>
+      <c r="FY142" s="5"/>
+      <c r="FZ142" s="5"/>
+      <c r="GA142" s="5"/>
+      <c r="GB142" s="5"/>
+      <c r="GC142" s="5"/>
+      <c r="GD142" s="5"/>
+      <c r="GE142" s="5"/>
+      <c r="GF142" s="5"/>
+      <c r="GG142" s="5"/>
+      <c r="GH142" s="5"/>
+      <c r="GI142" s="5"/>
+      <c r="GJ142" s="5"/>
+      <c r="GK142" s="5"/>
+      <c r="GL142" s="5"/>
+      <c r="GM142" s="5"/>
+      <c r="GN142" s="5"/>
+      <c r="GO142" s="5"/>
+      <c r="GP142" s="5"/>
+      <c r="GQ142" s="5"/>
+      <c r="GR142" s="5"/>
+      <c r="GS142" s="5"/>
+      <c r="GT142" s="5"/>
+      <c r="GU142" s="5"/>
+      <c r="GV142" s="5"/>
+      <c r="GW142" s="5"/>
+      <c r="GX142" s="5"/>
+      <c r="GY142" s="5"/>
+      <c r="GZ142" s="5"/>
+      <c r="HA142" s="5"/>
+      <c r="HB142" s="5"/>
+      <c r="HC142" s="5"/>
+      <c r="HD142" s="5"/>
+      <c r="HE142" s="5"/>
+      <c r="HF142" s="5"/>
+      <c r="HG142" s="5"/>
+      <c r="HH142" s="5"/>
+      <c r="HI142" s="5"/>
+      <c r="HJ142" s="5"/>
+      <c r="HK142" s="5"/>
+      <c r="HL142" s="5"/>
+      <c r="HM142" s="5"/>
+      <c r="HN142" s="5"/>
+      <c r="HO142" s="5"/>
+      <c r="HP142" s="5"/>
+      <c r="HQ142" s="5"/>
+      <c r="HR142" s="5"/>
+      <c r="HS142" s="5"/>
+      <c r="HT142" s="5"/>
+      <c r="HU142" s="5"/>
+      <c r="HV142" s="5"/>
+      <c r="HW142" s="5"/>
+      <c r="HX142" s="5"/>
+      <c r="HY142" s="5"/>
+      <c r="HZ142" s="5"/>
+      <c r="IA142" s="5"/>
+      <c r="IB142" s="5"/>
+      <c r="IC142" s="5"/>
+      <c r="ID142" s="5"/>
+      <c r="IE142" s="5"/>
+      <c r="IF142" s="5"/>
+      <c r="IG142" s="5"/>
+      <c r="IH142" s="5"/>
+      <c r="II142" s="5"/>
+      <c r="IJ142" s="5"/>
+      <c r="IK142" s="5"/>
+      <c r="IL142" s="5"/>
+      <c r="IM142" s="5"/>
+      <c r="IN142" s="5"/>
+      <c r="IO142" s="5"/>
+      <c r="IP142" s="5"/>
+      <c r="IQ142" s="5"/>
+      <c r="IR142" s="5"/>
+      <c r="IS142" s="5"/>
+      <c r="IT142" s="5"/>
+    </row>
+    <row r="143" spans="1:254" s="2" customFormat="1">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:254">
       <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -4520,7 +4602,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7"/>
-      <c r="B145" s="20"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -4530,7 +4612,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -4541,7 +4623,7 @@
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -4581,7 +4663,7 @@
     <row r="151" spans="1:8">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
+      <c r="C151" s="4"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
@@ -4590,7 +4672,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -4610,7 +4692,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -4620,7 +4702,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -4640,7 +4722,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -4660,7 +4742,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="7"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -4679,10 +4761,8 @@
       <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B161" s="7"/>
+      <c r="A161" s="7"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -4691,7 +4771,9 @@
       <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="7"/>
+      <c r="A162" s="45">
+        <v>43011</v>
+      </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -4702,7 +4784,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -4722,7 +4804,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -4762,7 +4844,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="6"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -4772,8 +4854,8 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
@@ -4782,7 +4864,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="19"/>
+      <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -4852,7 +4934,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="4"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="4"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -4862,7 +4944,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="19"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -4872,7 +4954,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="21"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -4892,7 +4974,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -4933,7 +5015,7 @@
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
       <c r="B186" s="19"/>
-      <c r="C186" s="7"/>
+      <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -4942,7 +5024,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="4"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -4962,7 +5044,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -5022,7 +5104,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
-      <c r="B195" s="21"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -5062,7 +5144,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -5072,7 +5154,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="6"/>
+      <c r="B200" s="4"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -5082,7 +5164,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -5092,7 +5174,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="19"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -5142,7 +5224,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="21"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -5152,7 +5234,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="19"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -5202,7 +5284,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="21"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -5262,7 +5344,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="4"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -5272,7 +5354,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="6"/>
+      <c r="B220" s="4"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -5282,8 +5364,8 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
@@ -5292,7 +5374,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="19"/>
+      <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -5302,7 +5384,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -5312,7 +5394,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="7"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -5352,7 +5434,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -5362,7 +5444,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5372,7 +5454,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="23"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -5392,7 +5474,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="23"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -5432,7 +5514,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -5442,7 +5524,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -5492,7 +5574,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -5502,8 +5584,8 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="7"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
@@ -5512,7 +5594,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -5522,7 +5604,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -5532,7 +5614,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="23"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -5582,8 +5664,8 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="4"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
@@ -5592,7 +5674,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="23"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -5602,7 +5684,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="24"/>
+      <c r="B253" s="23"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -5630,9 +5712,9 @@
       <c r="G255" s="30"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="1:8" ht="11.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="25"/>
+      <c r="B256" s="24"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -5640,9 +5722,9 @@
       <c r="G256" s="30"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" ht="11.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="23"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -5682,7 +5764,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="24"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -5712,7 +5794,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -5722,7 +5804,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -5730,15 +5812,15 @@
       <c r="G265" s="30"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8" s="2" customFormat="1">
-      <c r="A266" s="4"/>
+    <row r="266" spans="1:8">
+      <c r="A266" s="7"/>
       <c r="B266" s="24"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-      <c r="G266" s="34"/>
-      <c r="H266" s="4"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="7"/>
     </row>
     <row r="267" spans="1:8" s="2" customFormat="1">
       <c r="A267" s="4"/>
@@ -5750,19 +5832,19 @@
       <c r="G267" s="34"/>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="7"/>
+    <row r="268" spans="1:8" s="2" customFormat="1">
+      <c r="A268" s="4"/>
       <c r="B268" s="24"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="30"/>
-      <c r="H268" s="7"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
+      <c r="G268" s="34"/>
+      <c r="H268" s="4"/>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="23"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -5772,7 +5854,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -5802,7 +5884,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="22"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -5812,7 +5894,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -5832,7 +5914,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="20"/>
+      <c r="B276" s="7"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -5852,7 +5934,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -5883,7 +5965,7 @@
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
-      <c r="C281" s="7"/>
+      <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
@@ -5892,7 +5974,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="6"/>
+      <c r="B282" s="7"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -5902,7 +5984,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="6"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -5982,7 +6064,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -5992,8 +6074,8 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
@@ -6002,7 +6084,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="19"/>
+      <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -6032,7 +6114,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="4"/>
+      <c r="B296" s="19"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -6092,7 +6174,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="19"/>
+      <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -6112,7 +6194,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="21"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -6122,8 +6204,8 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="7"/>
-      <c r="C305" s="7"/>
+      <c r="B305" s="21"/>
+      <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
@@ -6132,7 +6214,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="6"/>
+      <c r="B306" s="7"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -6140,15 +6222,15 @@
       <c r="G306" s="30"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="1:8" s="2" customFormat="1">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4"/>
-      <c r="G307" s="34"/>
-      <c r="H307" s="4"/>
+    <row r="307" spans="1:8">
+      <c r="A307" s="7"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" s="30"/>
+      <c r="H307" s="7"/>
     </row>
     <row r="308" spans="1:8" s="2" customFormat="1">
       <c r="A308" s="4"/>
@@ -6172,7 +6254,7 @@
     </row>
     <row r="310" spans="1:8" s="2" customFormat="1">
       <c r="A310" s="4"/>
-      <c r="B310" s="19"/>
+      <c r="B310" s="4"/>
       <c r="C310" s="9"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -6222,8 +6304,8 @@
     </row>
     <row r="315" spans="1:8" s="2" customFormat="1">
       <c r="A315" s="4"/>
-      <c r="B315" s="26"/>
-      <c r="C315" s="4"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="9"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
@@ -6272,7 +6354,7 @@
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="21"/>
+      <c r="B320" s="26"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -6322,7 +6404,7 @@
     </row>
     <row r="325" spans="1:8" s="2" customFormat="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="19"/>
+      <c r="B325" s="21"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -6332,7 +6414,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="21"/>
+      <c r="B326" s="19"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -6342,7 +6424,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -6350,20 +6432,20 @@
       <c r="G327" s="34"/>
       <c r="H327" s="4"/>
     </row>
-    <row r="328" spans="1:8">
-      <c r="A328" s="7"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="7"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="7"/>
-      <c r="F328" s="7"/>
-      <c r="G328" s="30"/>
-      <c r="H328" s="7"/>
+    <row r="328" spans="1:8" s="2" customFormat="1">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="34"/>
+      <c r="H328" s="4"/>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="7"/>
-      <c r="B329" s="7"/>
-      <c r="C329" s="4"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
@@ -6432,7 +6514,7 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="7"/>
-      <c r="B336" s="4"/>
+      <c r="B336" s="7"/>
       <c r="C336" s="4"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
@@ -6443,7 +6525,7 @@
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
       <c r="B337" s="4"/>
-      <c r="C337" s="7"/>
+      <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
@@ -6452,7 +6534,7 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="6"/>
+      <c r="B338" s="4"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
@@ -6462,7 +6544,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
+      <c r="B339" s="6"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -6472,7 +6554,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="22"/>
+      <c r="B340" s="7"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -6482,7 +6564,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="22"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -6522,7 +6604,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="6"/>
+      <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -6532,7 +6614,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -6542,7 +6624,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="20"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -6572,7 +6654,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="22"/>
+      <c r="B350" s="20"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -6582,7 +6664,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="20"/>
+      <c r="B351" s="22"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -6602,7 +6684,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="22"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -6612,7 +6694,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="20"/>
+      <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -6622,7 +6704,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -6632,7 +6714,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -6662,7 +6744,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -6672,7 +6754,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="27"/>
+      <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -6682,7 +6764,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="22"/>
+      <c r="B361" s="27"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -6692,8 +6774,8 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
-      <c r="C362" s="4"/>
+      <c r="B362" s="22"/>
+      <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
@@ -6702,7 +6784,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="20"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="4"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -6732,7 +6814,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="4"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -6762,7 +6844,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="20"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -6782,8 +6864,8 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
-      <c r="C371" s="7"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
@@ -6792,7 +6874,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="6"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -6802,7 +6884,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="6"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -6862,7 +6944,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="6"/>
+      <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -6872,7 +6954,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -6893,7 +6975,7 @@
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
-      <c r="C382" s="4"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
@@ -6902,7 +6984,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="20"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="4"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -6913,7 +6995,7 @@
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
       <c r="B384" s="20"/>
-      <c r="C384" s="7"/>
+      <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -6922,7 +7004,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="27"/>
+      <c r="B385" s="20"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -6932,7 +7014,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="22"/>
+      <c r="B386" s="27"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -6982,7 +7064,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
+      <c r="B391" s="22"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -6992,7 +7074,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="6"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -7002,7 +7084,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -7012,7 +7094,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="20"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -7022,7 +7104,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="22"/>
+      <c r="B395" s="20"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -7042,7 +7124,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="20"/>
+      <c r="B397" s="22"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -7082,7 +7164,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="20"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -7092,7 +7174,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -7112,7 +7194,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="22"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -7122,7 +7204,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="22"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -7132,7 +7214,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="6"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -7142,7 +7224,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -7162,7 +7244,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="6"/>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -7172,7 +7254,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -7182,7 +7264,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="20"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7202,7 +7284,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="20"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -7212,7 +7294,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7222,7 +7304,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7272,7 +7354,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -7282,7 +7364,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -7342,7 +7424,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -7352,7 +7434,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -7372,7 +7454,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -7382,7 +7464,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="4"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -7402,7 +7484,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="4"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -7432,7 +7514,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="6"/>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -7442,8 +7524,8 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
-      <c r="C437" s="4"/>
+      <c r="B437" s="6"/>
+      <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
@@ -7493,7 +7575,7 @@
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
-      <c r="C442" s="7"/>
+      <c r="C442" s="4"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
@@ -7502,7 +7584,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="7"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -7512,8 +7594,8 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
-      <c r="C444" s="4"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -7553,7 +7635,7 @@
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
-      <c r="C448" s="7"/>
+      <c r="C448" s="4"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
@@ -7562,7 +7644,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="7"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -7572,7 +7654,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="22"/>
+      <c r="B450" s="6"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -7632,7 +7714,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
+      <c r="B456" s="22"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -7642,7 +7724,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="7"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -7652,7 +7734,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="22"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -7681,8 +7763,8 @@
       <c r="H460" s="7"/>
     </row>
     <row r="461" spans="1:8">
-      <c r="A461" s="6"/>
-      <c r="B461" s="7"/>
+      <c r="A461" s="7"/>
+      <c r="B461" s="22"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -7691,7 +7773,7 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="7"/>
+      <c r="A462" s="6"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
@@ -7732,7 +7814,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="28"/>
+      <c r="B466" s="7"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -7762,7 +7844,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
+      <c r="B469" s="28"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -7772,7 +7854,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="28"/>
+      <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -7782,7 +7864,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
+      <c r="B471" s="28"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -7792,21 +7874,21 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="29"/>
-      <c r="C472" s="30"/>
+      <c r="B472" s="7"/>
+      <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
-      <c r="F472" s="29"/>
+      <c r="F472" s="7"/>
       <c r="G472" s="30"/>
       <c r="H472" s="7"/>
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
-      <c r="C473" s="7"/>
+      <c r="B473" s="29"/>
+      <c r="C473" s="30"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="7"/>
+      <c r="F473" s="29"/>
       <c r="G473" s="30"/>
       <c r="H473" s="7"/>
     </row>
@@ -11710,13 +11792,23 @@
       <c r="G863" s="30"/>
       <c r="H863" s="7"/>
     </row>
+    <row r="864" spans="1:8">
+      <c r="A864" s="7"/>
+      <c r="B864" s="7"/>
+      <c r="C864" s="7"/>
+      <c r="D864" s="7"/>
+      <c r="E864" s="7"/>
+      <c r="F864" s="7"/>
+      <c r="G864" s="30"/>
+      <c r="H864" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G49" formulaRange="1"/>
+    <ignoredError sqref="G50" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/FindFiles Feature Matrix.xlsx
+++ b/FindFiles Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955224"/>
+          <c:w val="0.91978071330955258"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -626,7 +626,7 @@
                   <c:v>42890</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42910</c:v>
+                  <c:v>42938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,7 +644,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,7 +688,7 @@
                   <c:v>42890</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42910</c:v>
+                  <c:v>42938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +706,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,7 +750,7 @@
                   <c:v>42890</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42910</c:v>
+                  <c:v>42938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,7 +814,7 @@
                   <c:v>2017-06-04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2017-06-24</c:v>
+                  <c:v>2017-07-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -838,11 +838,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129473920"/>
-        <c:axId val="129238144"/>
+        <c:axId val="176934272"/>
+        <c:axId val="176764032"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129473920"/>
+        <c:axId val="176934272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129238144"/>
+        <c:crossAx val="176764032"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -885,7 +885,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129238144"/>
+        <c:axId val="176764032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129473920"/>
+        <c:crossAx val="176934272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -950,7 +950,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844597"/>
+          <c:y val="0.37277147487844614"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1017,7 +1017,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1071,7 +1071,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127595E-2"/>
+          <c:x val="4.451045024812763E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1117,7 +1117,7 @@
                   <c:v>42890</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42910</c:v>
+                  <c:v>42938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,17 +1135,17 @@
                   <c:v>0.35897435897435898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.38750000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129270144"/>
-        <c:axId val="129271680"/>
+        <c:axId val="176783744"/>
+        <c:axId val="176785280"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129270144"/>
+        <c:axId val="176783744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,13 +1153,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="129271680"/>
+        <c:crossAx val="176785280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129271680"/>
+        <c:axId val="176785280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1202,7 +1202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129270144"/>
+        <c:crossAx val="176783744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1251,7 +1251,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1313,7 +1313,7 @@
                   <c:v>42890</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42910</c:v>
+                  <c:v>42938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,7 +1331,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1375,7 @@
                   <c:v>42890</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42910</c:v>
+                  <c:v>42938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,11 +1399,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129288448"/>
-        <c:axId val="129290240"/>
+        <c:axId val="176838912"/>
+        <c:axId val="176947200"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129288448"/>
+        <c:axId val="176838912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,13 +1436,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129290240"/>
+        <c:crossAx val="176947200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129290240"/>
+        <c:axId val="176947200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129288448"/>
+        <c:crossAx val="176838912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,7 +1533,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1993,8 +1993,8 @@
   </sheetPr>
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2407,7 +2407,7 @@
         <v>70</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4"/>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C130" s="6">
         <f>COUNTIF(C5:C129,"y")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2"/>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C131" s="6">
         <f>COUNTIF(C5:C129,"n")</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D131" s="2"/>
     </row>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="D134" s="41">
         <f>C130/(C131+C130 + C132)</f>
-        <v>0.375</v>
+        <v>0.38750000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3067,10 +3067,10 @@
   </sheetPr>
   <dimension ref="A1:IT864"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3356,13 +3356,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="48">
-        <v>42910</v>
+        <v>42938</v>
       </c>
       <c r="B50" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C50" s="4">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.35</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="G53" s="38">
         <f>MIN(G50)</f>
-        <v>0.35</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -3431,11 +3431,11 @@
       </c>
       <c r="B54" s="15">
         <f>Features!C130</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" s="16">
         <f>Features!C131</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="17">
         <f>Features!C132</f>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B58" s="51">
         <f>A48+A54/B54*(A50-A48)</f>
-        <v>43031.666666666664</v>
+        <v>43097.645161290326</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>

--- a/FindFiles Feature Matrix.xlsx
+++ b/FindFiles Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
   <si>
     <t>Feature</t>
   </si>
@@ -248,9 +248,6 @@
     <t>check for update</t>
   </si>
   <si>
-    <t>0.00.8</t>
-  </si>
-  <si>
     <t>licenses table</t>
   </si>
   <si>
@@ -311,13 +308,22 @@
     <t>ETA:</t>
   </si>
   <si>
-    <t>0.00.7</t>
-  </si>
-  <si>
     <t>window</t>
   </si>
   <si>
     <t>new window</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>0.00.09</t>
+  </si>
+  <si>
+    <t>0.00.08</t>
+  </si>
+  <si>
+    <t>0.00.07</t>
   </si>
 </sst>
 </file>
@@ -582,7 +588,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955258"/>
+          <c:w val="0.9197807133095528"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -615,10 +621,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
@@ -628,15 +634,18 @@
                 <c:pt idx="2">
                   <c:v>42938</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42946</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$50</c:f>
+              <c:f>Progress!$B$48:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -644,6 +653,9 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -677,10 +689,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
@@ -690,15 +702,18 @@
                 <c:pt idx="2">
                   <c:v>42938</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42946</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -707,6 +722,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,10 +757,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
@@ -752,15 +770,18 @@
                 <c:pt idx="2">
                   <c:v>42938</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42946</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -768,6 +789,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -801,9 +825,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$50</c:f>
+              <c:f>Progress!$A$47:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -816,15 +840,18 @@
                 <c:pt idx="3">
                   <c:v>2017-07-22</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017-07-30</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$50</c:f>
+              <c:f>Progress!$E$48:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -834,15 +861,18 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="176934272"/>
-        <c:axId val="176764032"/>
+        <c:axId val="125869440"/>
+        <c:axId val="125699200"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="176934272"/>
+        <c:axId val="125869440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176764032"/>
+        <c:crossAx val="125699200"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -885,7 +915,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176764032"/>
+        <c:axId val="125699200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176934272"/>
+        <c:crossAx val="125869440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -950,7 +980,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844614"/>
+          <c:y val="0.37277147487844625"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1017,7 +1047,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1071,7 +1101,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.451045024812763E-2"/>
+          <c:x val="4.4510450248127643E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1106,10 +1136,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
@@ -1119,15 +1149,18 @@
                 <c:pt idx="2">
                   <c:v>42938</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42946</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$50</c:f>
+              <c:f>Progress!$G$48:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1137,15 +1170,18 @@
                 <c:pt idx="2">
                   <c:v>0.38750000000000001</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38271604938271603</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="176783744"/>
-        <c:axId val="176785280"/>
+        <c:axId val="125718912"/>
+        <c:axId val="125720448"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="176783744"/>
+        <c:axId val="125718912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,13 +1189,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="176785280"/>
+        <c:crossAx val="125720448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176785280"/>
+        <c:axId val="125720448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1202,7 +1238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176783744"/>
+        <c:crossAx val="125718912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1251,7 +1287,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1302,10 +1338,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
@@ -1315,15 +1351,18 @@
                 <c:pt idx="2">
                   <c:v>42938</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42946</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1332,6 +1371,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1406,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42837</c:v>
                 </c:pt>
@@ -1377,15 +1419,18 @@
                 <c:pt idx="2">
                   <c:v>42938</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42946</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1395,15 +1440,18 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="176838912"/>
-        <c:axId val="176947200"/>
+        <c:axId val="125753600"/>
+        <c:axId val="125759488"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="176838912"/>
+        <c:axId val="125753600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,13 +1484,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176947200"/>
+        <c:crossAx val="125759488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176947200"/>
+        <c:axId val="125759488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176838912"/>
+        <c:crossAx val="125753600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,7 +1581,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1583,7 +1631,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1991,10 +2039,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2157,7 +2205,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
@@ -2166,7 +2214,7 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
@@ -2496,7 +2544,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="4"/>
@@ -2508,7 +2556,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -2522,7 +2570,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -2571,7 +2619,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -2580,7 +2628,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -2589,7 +2637,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="20" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -2598,7 +2646,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -2607,7 +2655,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -2615,22 +2663,22 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="20" t="s">
-        <v>82</v>
+      <c r="B83" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -2639,7 +2687,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2648,7 +2696,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -2657,7 +2705,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -2666,7 +2714,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -2675,7 +2723,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -2683,22 +2731,22 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22"/>
-      <c r="C89" s="7"/>
+      <c r="B89" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -2706,8 +2754,12 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="7"/>
+      <c r="B92" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
@@ -2716,31 +2768,27 @@
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="22"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="2:4" s="6" customFormat="1">
+      <c r="B95" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="7"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="22"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="2:4" s="6" customFormat="1">
+      <c r="B97" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -2749,7 +2797,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -2757,41 +2805,41 @@
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="22"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="22"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="2:4" s="6" customFormat="1">
+      <c r="B101" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C101" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22"/>
-      <c r="C101" s="7"/>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="20"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="7"/>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="20"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="2:4" s="6" customFormat="1">
+      <c r="B104" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -2800,7 +2848,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
@@ -2809,7 +2857,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>14</v>
@@ -2817,8 +2865,12 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="22"/>
-      <c r="C107" s="7"/>
+      <c r="B107" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
@@ -2827,17 +2879,13 @@
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="22"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>14</v>
@@ -2846,7 +2894,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>14</v>
@@ -2855,7 +2903,7 @@
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -2863,8 +2911,12 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="43"/>
-      <c r="C113" s="4"/>
+      <c r="B113" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
@@ -2873,17 +2925,13 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B115" s="43"/>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22" t="s">
-        <v>77</v>
+      <c r="B116" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>14</v>
@@ -2892,7 +2940,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="22" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>14</v>
@@ -2901,7 +2949,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -2910,7 +2958,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>14</v>
@@ -2918,27 +2966,27 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="43"/>
-      <c r="C120" s="4"/>
+      <c r="B120" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="21"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="21"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="2:4" s="6" customFormat="1">
+      <c r="B123" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>14</v>
@@ -2947,7 +2995,7 @@
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>14</v>
@@ -2955,17 +3003,21 @@
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22"/>
-      <c r="C125" s="4"/>
+      <c r="B125" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="19"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="21"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
     </row>
@@ -2974,76 +3026,81 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="3"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="3"/>
+    <row r="129" spans="1:4" s="6" customFormat="1">
+      <c r="B129" s="21"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="3"/>
-      <c r="B130" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="6">
-        <f>COUNTIF(C5:C129,"y")</f>
-        <v>31</v>
-      </c>
-      <c r="D130" s="2"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="3"/>
       <c r="B131" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" s="6">
-        <f>COUNTIF(C5:C129,"n")</f>
-        <v>49</v>
+        <f>COUNTIF(C5:C130,"y")</f>
+        <v>31</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="3"/>
       <c r="B132" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="7">
-        <f>COUNTIF(C5:C129,"TBD")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C132" s="6">
+        <f>COUNTIF(C5:C130,"n")</f>
+        <v>50</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="3"/>
       <c r="B133" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="7">
+        <f>COUNTIF(C5:C130,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3"/>
+      <c r="B134" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C133">
-        <f>SUM(C130:C132)</f>
-        <v>80</v>
-      </c>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4" ht="18">
-      <c r="A134" s="3"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10" t="s">
+      <c r="C134">
+        <f>SUM(C131:C133)</f>
+        <v>81</v>
+      </c>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" ht="18">
+      <c r="A135" s="3"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="41">
-        <f>C130/(C131+C130 + C132)</f>
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="3"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="3"/>
+      <c r="D135" s="41">
+        <f>C131/(C132+C131 + C133)</f>
+        <v>0.38271604938271603</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64883">
+  <conditionalFormatting sqref="C1:C3 C6:C64884">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3065,12 +3122,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT864"/>
+  <dimension ref="A1:IT865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3346,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -3371,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
@@ -3380,13 +3437,28 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="49"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="30"/>
+      <c r="A51" s="48">
+        <v>42946</v>
+      </c>
+      <c r="B51" s="4">
+        <v>31</v>
+      </c>
+      <c r="C51" s="4">
+        <v>50</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="30">
+        <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
+        <v>0.38271604938271603</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10">
@@ -3395,83 +3467,83 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="31"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="30"/>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="38">
-        <f>MIN(G50)</f>
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="39">
-        <f>SUM(B54:D54)</f>
-        <v>80</v>
-      </c>
-      <c r="B54" s="15">
-        <f>Features!C130</f>
+      <c r="G54" s="38">
+        <f>MIN(G51)</f>
+        <v>0.38271604938271603</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="39">
+        <f>SUM(B55:D55)</f>
+        <v>81</v>
+      </c>
+      <c r="B55" s="15">
+        <f>Features!C131</f>
         <v>31</v>
       </c>
-      <c r="C54" s="16">
-        <f>Features!C131</f>
-        <v>49</v>
-      </c>
-      <c r="D54" s="17">
+      <c r="C55" s="16">
         <f>Features!C132</f>
+        <v>50</v>
+      </c>
+      <c r="D55" s="17">
+        <f>Features!C133</f>
         <v>0</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E55" s="18">
         <v>0</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="4"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
-      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
+      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -3480,13 +3552,8 @@
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="51">
-        <f>A48+A54/B54*(A50-A48)</f>
-        <v>43097.645161290326</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -3495,8 +3562,13 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="51">
+        <f>A48+A55/B55*(A51-A48)</f>
+        <v>43121.806451612902</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -3506,7 +3578,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -3526,7 +3598,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -3546,7 +3618,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="7"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3556,7 +3628,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -3575,7 +3647,7 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="20"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
@@ -3586,7 +3658,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3717,7 +3789,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -3726,7 +3798,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -3734,15 +3806,15 @@
       <c r="G82" s="30"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="4"/>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="4"/>
@@ -3916,7 +3988,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -3926,7 +3998,7 @@
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -3956,7 +4028,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -3996,7 +4068,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="21"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4006,7 +4078,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4016,7 +4088,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -4026,7 +4098,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4036,7 +4108,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4056,7 +4128,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4116,7 +4188,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4216,7 +4288,7 @@
     </row>
     <row r="131" spans="1:254" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -4266,7 +4338,7 @@
     </row>
     <row r="136" spans="1:254" s="2" customFormat="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="19"/>
+      <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -4286,7 +4358,7 @@
     </row>
     <row r="138" spans="1:254" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -4325,284 +4397,284 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:254" s="2" customFormat="1">
-      <c r="A142" s="21"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
-      <c r="Z142" s="5"/>
-      <c r="AA142" s="5"/>
-      <c r="AB142" s="5"/>
-      <c r="AC142" s="5"/>
-      <c r="AD142" s="5"/>
-      <c r="AE142" s="5"/>
-      <c r="AF142" s="5"/>
-      <c r="AG142" s="5"/>
-      <c r="AH142" s="5"/>
-      <c r="AI142" s="5"/>
-      <c r="AJ142" s="5"/>
-      <c r="AK142" s="5"/>
-      <c r="AL142" s="5"/>
-      <c r="AM142" s="5"/>
-      <c r="AN142" s="5"/>
-      <c r="AO142" s="5"/>
-      <c r="AP142" s="5"/>
-      <c r="AQ142" s="5"/>
-      <c r="AR142" s="5"/>
-      <c r="AS142" s="5"/>
-      <c r="AT142" s="5"/>
-      <c r="AU142" s="5"/>
-      <c r="AV142" s="5"/>
-      <c r="AW142" s="5"/>
-      <c r="AX142" s="5"/>
-      <c r="AY142" s="5"/>
-      <c r="AZ142" s="5"/>
-      <c r="BA142" s="5"/>
-      <c r="BB142" s="5"/>
-      <c r="BC142" s="5"/>
-      <c r="BD142" s="5"/>
-      <c r="BE142" s="5"/>
-      <c r="BF142" s="5"/>
-      <c r="BG142" s="5"/>
-      <c r="BH142" s="5"/>
-      <c r="BI142" s="5"/>
-      <c r="BJ142" s="5"/>
-      <c r="BK142" s="5"/>
-      <c r="BL142" s="5"/>
-      <c r="BM142" s="5"/>
-      <c r="BN142" s="5"/>
-      <c r="BO142" s="5"/>
-      <c r="BP142" s="5"/>
-      <c r="BQ142" s="5"/>
-      <c r="BR142" s="5"/>
-      <c r="BS142" s="5"/>
-      <c r="BT142" s="5"/>
-      <c r="BU142" s="5"/>
-      <c r="BV142" s="5"/>
-      <c r="BW142" s="5"/>
-      <c r="BX142" s="5"/>
-      <c r="BY142" s="5"/>
-      <c r="BZ142" s="5"/>
-      <c r="CA142" s="5"/>
-      <c r="CB142" s="5"/>
-      <c r="CC142" s="5"/>
-      <c r="CD142" s="5"/>
-      <c r="CE142" s="5"/>
-      <c r="CF142" s="5"/>
-      <c r="CG142" s="5"/>
-      <c r="CH142" s="5"/>
-      <c r="CI142" s="5"/>
-      <c r="CJ142" s="5"/>
-      <c r="CK142" s="5"/>
-      <c r="CL142" s="5"/>
-      <c r="CM142" s="5"/>
-      <c r="CN142" s="5"/>
-      <c r="CO142" s="5"/>
-      <c r="CP142" s="5"/>
-      <c r="CQ142" s="5"/>
-      <c r="CR142" s="5"/>
-      <c r="CS142" s="5"/>
-      <c r="CT142" s="5"/>
-      <c r="CU142" s="5"/>
-      <c r="CV142" s="5"/>
-      <c r="CW142" s="5"/>
-      <c r="CX142" s="5"/>
-      <c r="CY142" s="5"/>
-      <c r="CZ142" s="5"/>
-      <c r="DA142" s="5"/>
-      <c r="DB142" s="5"/>
-      <c r="DC142" s="5"/>
-      <c r="DD142" s="5"/>
-      <c r="DE142" s="5"/>
-      <c r="DF142" s="5"/>
-      <c r="DG142" s="5"/>
-      <c r="DH142" s="5"/>
-      <c r="DI142" s="5"/>
-      <c r="DJ142" s="5"/>
-      <c r="DK142" s="5"/>
-      <c r="DL142" s="5"/>
-      <c r="DM142" s="5"/>
-      <c r="DN142" s="5"/>
-      <c r="DO142" s="5"/>
-      <c r="DP142" s="5"/>
-      <c r="DQ142" s="5"/>
-      <c r="DR142" s="5"/>
-      <c r="DS142" s="5"/>
-      <c r="DT142" s="5"/>
-      <c r="DU142" s="5"/>
-      <c r="DV142" s="5"/>
-      <c r="DW142" s="5"/>
-      <c r="DX142" s="5"/>
-      <c r="DY142" s="5"/>
-      <c r="DZ142" s="5"/>
-      <c r="EA142" s="5"/>
-      <c r="EB142" s="5"/>
-      <c r="EC142" s="5"/>
-      <c r="ED142" s="5"/>
-      <c r="EE142" s="5"/>
-      <c r="EF142" s="5"/>
-      <c r="EG142" s="5"/>
-      <c r="EH142" s="5"/>
-      <c r="EI142" s="5"/>
-      <c r="EJ142" s="5"/>
-      <c r="EK142" s="5"/>
-      <c r="EL142" s="5"/>
-      <c r="EM142" s="5"/>
-      <c r="EN142" s="5"/>
-      <c r="EO142" s="5"/>
-      <c r="EP142" s="5"/>
-      <c r="EQ142" s="5"/>
-      <c r="ER142" s="5"/>
-      <c r="ES142" s="5"/>
-      <c r="ET142" s="5"/>
-      <c r="EU142" s="5"/>
-      <c r="EV142" s="5"/>
-      <c r="EW142" s="5"/>
-      <c r="EX142" s="5"/>
-      <c r="EY142" s="5"/>
-      <c r="EZ142" s="5"/>
-      <c r="FA142" s="5"/>
-      <c r="FB142" s="5"/>
-      <c r="FC142" s="5"/>
-      <c r="FD142" s="5"/>
-      <c r="FE142" s="5"/>
-      <c r="FF142" s="5"/>
-      <c r="FG142" s="5"/>
-      <c r="FH142" s="5"/>
-      <c r="FI142" s="5"/>
-      <c r="FJ142" s="5"/>
-      <c r="FK142" s="5"/>
-      <c r="FL142" s="5"/>
-      <c r="FM142" s="5"/>
-      <c r="FN142" s="5"/>
-      <c r="FO142" s="5"/>
-      <c r="FP142" s="5"/>
-      <c r="FQ142" s="5"/>
-      <c r="FR142" s="5"/>
-      <c r="FS142" s="5"/>
-      <c r="FT142" s="5"/>
-      <c r="FU142" s="5"/>
-      <c r="FV142" s="5"/>
-      <c r="FW142" s="5"/>
-      <c r="FX142" s="5"/>
-      <c r="FY142" s="5"/>
-      <c r="FZ142" s="5"/>
-      <c r="GA142" s="5"/>
-      <c r="GB142" s="5"/>
-      <c r="GC142" s="5"/>
-      <c r="GD142" s="5"/>
-      <c r="GE142" s="5"/>
-      <c r="GF142" s="5"/>
-      <c r="GG142" s="5"/>
-      <c r="GH142" s="5"/>
-      <c r="GI142" s="5"/>
-      <c r="GJ142" s="5"/>
-      <c r="GK142" s="5"/>
-      <c r="GL142" s="5"/>
-      <c r="GM142" s="5"/>
-      <c r="GN142" s="5"/>
-      <c r="GO142" s="5"/>
-      <c r="GP142" s="5"/>
-      <c r="GQ142" s="5"/>
-      <c r="GR142" s="5"/>
-      <c r="GS142" s="5"/>
-      <c r="GT142" s="5"/>
-      <c r="GU142" s="5"/>
-      <c r="GV142" s="5"/>
-      <c r="GW142" s="5"/>
-      <c r="GX142" s="5"/>
-      <c r="GY142" s="5"/>
-      <c r="GZ142" s="5"/>
-      <c r="HA142" s="5"/>
-      <c r="HB142" s="5"/>
-      <c r="HC142" s="5"/>
-      <c r="HD142" s="5"/>
-      <c r="HE142" s="5"/>
-      <c r="HF142" s="5"/>
-      <c r="HG142" s="5"/>
-      <c r="HH142" s="5"/>
-      <c r="HI142" s="5"/>
-      <c r="HJ142" s="5"/>
-      <c r="HK142" s="5"/>
-      <c r="HL142" s="5"/>
-      <c r="HM142" s="5"/>
-      <c r="HN142" s="5"/>
-      <c r="HO142" s="5"/>
-      <c r="HP142" s="5"/>
-      <c r="HQ142" s="5"/>
-      <c r="HR142" s="5"/>
-      <c r="HS142" s="5"/>
-      <c r="HT142" s="5"/>
-      <c r="HU142" s="5"/>
-      <c r="HV142" s="5"/>
-      <c r="HW142" s="5"/>
-      <c r="HX142" s="5"/>
-      <c r="HY142" s="5"/>
-      <c r="HZ142" s="5"/>
-      <c r="IA142" s="5"/>
-      <c r="IB142" s="5"/>
-      <c r="IC142" s="5"/>
-      <c r="ID142" s="5"/>
-      <c r="IE142" s="5"/>
-      <c r="IF142" s="5"/>
-      <c r="IG142" s="5"/>
-      <c r="IH142" s="5"/>
-      <c r="II142" s="5"/>
-      <c r="IJ142" s="5"/>
-      <c r="IK142" s="5"/>
-      <c r="IL142" s="5"/>
-      <c r="IM142" s="5"/>
-      <c r="IN142" s="5"/>
-      <c r="IO142" s="5"/>
-      <c r="IP142" s="5"/>
-      <c r="IQ142" s="5"/>
-      <c r="IR142" s="5"/>
-      <c r="IS142" s="5"/>
-      <c r="IT142" s="5"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:254" s="2" customFormat="1">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:254">
-      <c r="A144" s="7"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="7"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+      <c r="AJ143" s="5"/>
+      <c r="AK143" s="5"/>
+      <c r="AL143" s="5"/>
+      <c r="AM143" s="5"/>
+      <c r="AN143" s="5"/>
+      <c r="AO143" s="5"/>
+      <c r="AP143" s="5"/>
+      <c r="AQ143" s="5"/>
+      <c r="AR143" s="5"/>
+      <c r="AS143" s="5"/>
+      <c r="AT143" s="5"/>
+      <c r="AU143" s="5"/>
+      <c r="AV143" s="5"/>
+      <c r="AW143" s="5"/>
+      <c r="AX143" s="5"/>
+      <c r="AY143" s="5"/>
+      <c r="AZ143" s="5"/>
+      <c r="BA143" s="5"/>
+      <c r="BB143" s="5"/>
+      <c r="BC143" s="5"/>
+      <c r="BD143" s="5"/>
+      <c r="BE143" s="5"/>
+      <c r="BF143" s="5"/>
+      <c r="BG143" s="5"/>
+      <c r="BH143" s="5"/>
+      <c r="BI143" s="5"/>
+      <c r="BJ143" s="5"/>
+      <c r="BK143" s="5"/>
+      <c r="BL143" s="5"/>
+      <c r="BM143" s="5"/>
+      <c r="BN143" s="5"/>
+      <c r="BO143" s="5"/>
+      <c r="BP143" s="5"/>
+      <c r="BQ143" s="5"/>
+      <c r="BR143" s="5"/>
+      <c r="BS143" s="5"/>
+      <c r="BT143" s="5"/>
+      <c r="BU143" s="5"/>
+      <c r="BV143" s="5"/>
+      <c r="BW143" s="5"/>
+      <c r="BX143" s="5"/>
+      <c r="BY143" s="5"/>
+      <c r="BZ143" s="5"/>
+      <c r="CA143" s="5"/>
+      <c r="CB143" s="5"/>
+      <c r="CC143" s="5"/>
+      <c r="CD143" s="5"/>
+      <c r="CE143" s="5"/>
+      <c r="CF143" s="5"/>
+      <c r="CG143" s="5"/>
+      <c r="CH143" s="5"/>
+      <c r="CI143" s="5"/>
+      <c r="CJ143" s="5"/>
+      <c r="CK143" s="5"/>
+      <c r="CL143" s="5"/>
+      <c r="CM143" s="5"/>
+      <c r="CN143" s="5"/>
+      <c r="CO143" s="5"/>
+      <c r="CP143" s="5"/>
+      <c r="CQ143" s="5"/>
+      <c r="CR143" s="5"/>
+      <c r="CS143" s="5"/>
+      <c r="CT143" s="5"/>
+      <c r="CU143" s="5"/>
+      <c r="CV143" s="5"/>
+      <c r="CW143" s="5"/>
+      <c r="CX143" s="5"/>
+      <c r="CY143" s="5"/>
+      <c r="CZ143" s="5"/>
+      <c r="DA143" s="5"/>
+      <c r="DB143" s="5"/>
+      <c r="DC143" s="5"/>
+      <c r="DD143" s="5"/>
+      <c r="DE143" s="5"/>
+      <c r="DF143" s="5"/>
+      <c r="DG143" s="5"/>
+      <c r="DH143" s="5"/>
+      <c r="DI143" s="5"/>
+      <c r="DJ143" s="5"/>
+      <c r="DK143" s="5"/>
+      <c r="DL143" s="5"/>
+      <c r="DM143" s="5"/>
+      <c r="DN143" s="5"/>
+      <c r="DO143" s="5"/>
+      <c r="DP143" s="5"/>
+      <c r="DQ143" s="5"/>
+      <c r="DR143" s="5"/>
+      <c r="DS143" s="5"/>
+      <c r="DT143" s="5"/>
+      <c r="DU143" s="5"/>
+      <c r="DV143" s="5"/>
+      <c r="DW143" s="5"/>
+      <c r="DX143" s="5"/>
+      <c r="DY143" s="5"/>
+      <c r="DZ143" s="5"/>
+      <c r="EA143" s="5"/>
+      <c r="EB143" s="5"/>
+      <c r="EC143" s="5"/>
+      <c r="ED143" s="5"/>
+      <c r="EE143" s="5"/>
+      <c r="EF143" s="5"/>
+      <c r="EG143" s="5"/>
+      <c r="EH143" s="5"/>
+      <c r="EI143" s="5"/>
+      <c r="EJ143" s="5"/>
+      <c r="EK143" s="5"/>
+      <c r="EL143" s="5"/>
+      <c r="EM143" s="5"/>
+      <c r="EN143" s="5"/>
+      <c r="EO143" s="5"/>
+      <c r="EP143" s="5"/>
+      <c r="EQ143" s="5"/>
+      <c r="ER143" s="5"/>
+      <c r="ES143" s="5"/>
+      <c r="ET143" s="5"/>
+      <c r="EU143" s="5"/>
+      <c r="EV143" s="5"/>
+      <c r="EW143" s="5"/>
+      <c r="EX143" s="5"/>
+      <c r="EY143" s="5"/>
+      <c r="EZ143" s="5"/>
+      <c r="FA143" s="5"/>
+      <c r="FB143" s="5"/>
+      <c r="FC143" s="5"/>
+      <c r="FD143" s="5"/>
+      <c r="FE143" s="5"/>
+      <c r="FF143" s="5"/>
+      <c r="FG143" s="5"/>
+      <c r="FH143" s="5"/>
+      <c r="FI143" s="5"/>
+      <c r="FJ143" s="5"/>
+      <c r="FK143" s="5"/>
+      <c r="FL143" s="5"/>
+      <c r="FM143" s="5"/>
+      <c r="FN143" s="5"/>
+      <c r="FO143" s="5"/>
+      <c r="FP143" s="5"/>
+      <c r="FQ143" s="5"/>
+      <c r="FR143" s="5"/>
+      <c r="FS143" s="5"/>
+      <c r="FT143" s="5"/>
+      <c r="FU143" s="5"/>
+      <c r="FV143" s="5"/>
+      <c r="FW143" s="5"/>
+      <c r="FX143" s="5"/>
+      <c r="FY143" s="5"/>
+      <c r="FZ143" s="5"/>
+      <c r="GA143" s="5"/>
+      <c r="GB143" s="5"/>
+      <c r="GC143" s="5"/>
+      <c r="GD143" s="5"/>
+      <c r="GE143" s="5"/>
+      <c r="GF143" s="5"/>
+      <c r="GG143" s="5"/>
+      <c r="GH143" s="5"/>
+      <c r="GI143" s="5"/>
+      <c r="GJ143" s="5"/>
+      <c r="GK143" s="5"/>
+      <c r="GL143" s="5"/>
+      <c r="GM143" s="5"/>
+      <c r="GN143" s="5"/>
+      <c r="GO143" s="5"/>
+      <c r="GP143" s="5"/>
+      <c r="GQ143" s="5"/>
+      <c r="GR143" s="5"/>
+      <c r="GS143" s="5"/>
+      <c r="GT143" s="5"/>
+      <c r="GU143" s="5"/>
+      <c r="GV143" s="5"/>
+      <c r="GW143" s="5"/>
+      <c r="GX143" s="5"/>
+      <c r="GY143" s="5"/>
+      <c r="GZ143" s="5"/>
+      <c r="HA143" s="5"/>
+      <c r="HB143" s="5"/>
+      <c r="HC143" s="5"/>
+      <c r="HD143" s="5"/>
+      <c r="HE143" s="5"/>
+      <c r="HF143" s="5"/>
+      <c r="HG143" s="5"/>
+      <c r="HH143" s="5"/>
+      <c r="HI143" s="5"/>
+      <c r="HJ143" s="5"/>
+      <c r="HK143" s="5"/>
+      <c r="HL143" s="5"/>
+      <c r="HM143" s="5"/>
+      <c r="HN143" s="5"/>
+      <c r="HO143" s="5"/>
+      <c r="HP143" s="5"/>
+      <c r="HQ143" s="5"/>
+      <c r="HR143" s="5"/>
+      <c r="HS143" s="5"/>
+      <c r="HT143" s="5"/>
+      <c r="HU143" s="5"/>
+      <c r="HV143" s="5"/>
+      <c r="HW143" s="5"/>
+      <c r="HX143" s="5"/>
+      <c r="HY143" s="5"/>
+      <c r="HZ143" s="5"/>
+      <c r="IA143" s="5"/>
+      <c r="IB143" s="5"/>
+      <c r="IC143" s="5"/>
+      <c r="ID143" s="5"/>
+      <c r="IE143" s="5"/>
+      <c r="IF143" s="5"/>
+      <c r="IG143" s="5"/>
+      <c r="IH143" s="5"/>
+      <c r="II143" s="5"/>
+      <c r="IJ143" s="5"/>
+      <c r="IK143" s="5"/>
+      <c r="IL143" s="5"/>
+      <c r="IM143" s="5"/>
+      <c r="IN143" s="5"/>
+      <c r="IO143" s="5"/>
+      <c r="IP143" s="5"/>
+      <c r="IQ143" s="5"/>
+      <c r="IR143" s="5"/>
+      <c r="IS143" s="5"/>
+      <c r="IT143" s="5"/>
+    </row>
+    <row r="144" spans="1:254" s="2" customFormat="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -4612,7 +4684,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="20"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -4622,7 +4694,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -4633,7 +4705,7 @@
     <row r="148" spans="1:8">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -4673,7 +4745,7 @@
     <row r="152" spans="1:8">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -4682,7 +4754,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="7"/>
-      <c r="B153" s="22"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -4702,7 +4774,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -4712,7 +4784,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -4732,7 +4804,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -4752,7 +4824,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -4771,10 +4843,8 @@
       <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B162" s="7"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -4783,7 +4853,9 @@
       <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="7"/>
+      <c r="A163" s="45">
+        <v>43011</v>
+      </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -4794,7 +4866,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -4814,7 +4886,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -4854,7 +4926,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="6"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -4864,8 +4936,8 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -4874,7 +4946,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="19"/>
+      <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -4944,7 +5016,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="4"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -4954,7 +5026,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="19"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -4964,7 +5036,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="21"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -4984,7 +5056,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -5025,7 +5097,7 @@
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
       <c r="B187" s="19"/>
-      <c r="C187" s="7"/>
+      <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -5034,7 +5106,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -5054,7 +5126,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -5114,7 +5186,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="21"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -5154,7 +5226,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -5164,7 +5236,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="6"/>
+      <c r="B201" s="4"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -5174,7 +5246,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -5184,7 +5256,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="19"/>
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -5234,7 +5306,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="21"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -5244,7 +5316,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="19"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -5294,7 +5366,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="21"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -5354,7 +5426,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="4"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -5364,7 +5436,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="6"/>
+      <c r="B221" s="4"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -5374,8 +5446,8 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
@@ -5384,7 +5456,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="19"/>
+      <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -5394,7 +5466,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -5404,7 +5476,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="7"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -5444,7 +5516,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5454,7 +5526,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="7"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -5464,7 +5536,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="23"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -5484,7 +5556,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="23"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -5524,7 +5596,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -5534,7 +5606,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -5584,7 +5656,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -5594,8 +5666,8 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="7"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
@@ -5604,7 +5676,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -5614,7 +5686,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -5624,7 +5696,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="23"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -5674,8 +5746,8 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="4"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -5684,7 +5756,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="23"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -5694,7 +5766,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="24"/>
+      <c r="B254" s="23"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -5722,9 +5794,9 @@
       <c r="G256" s="30"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8" ht="11.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="25"/>
+      <c r="B257" s="24"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -5732,9 +5804,9 @@
       <c r="G257" s="30"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" ht="11.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="23"/>
+      <c r="B258" s="25"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -5774,7 +5846,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -5804,7 +5876,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="23"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -5814,7 +5886,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -5822,15 +5894,15 @@
       <c r="G266" s="30"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8" s="2" customFormat="1">
-      <c r="A267" s="4"/>
+    <row r="267" spans="1:8">
+      <c r="A267" s="7"/>
       <c r="B267" s="24"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-      <c r="G267" s="34"/>
-      <c r="H267" s="4"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="30"/>
+      <c r="H267" s="7"/>
     </row>
     <row r="268" spans="1:8" s="2" customFormat="1">
       <c r="A268" s="4"/>
@@ -5842,19 +5914,19 @@
       <c r="G268" s="34"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="7"/>
+    <row r="269" spans="1:8" s="2" customFormat="1">
+      <c r="A269" s="4"/>
       <c r="B269" s="24"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="7"/>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="7"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="4"/>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="23"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -5864,7 +5936,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -5894,7 +5966,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="22"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -5904,7 +5976,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
+      <c r="B275" s="22"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -5924,7 +5996,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="20"/>
+      <c r="B277" s="7"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -5944,7 +6016,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -5975,7 +6047,7 @@
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
+      <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
@@ -5984,7 +6056,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="6"/>
+      <c r="B283" s="7"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -5994,7 +6066,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="6"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -6074,7 +6146,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="6"/>
+      <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -6084,8 +6156,8 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -6094,7 +6166,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="19"/>
+      <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -6124,7 +6196,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="4"/>
+      <c r="B297" s="19"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -6184,7 +6256,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="19"/>
+      <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -6204,7 +6276,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="21"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -6214,8 +6286,8 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
+      <c r="B306" s="21"/>
+      <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
@@ -6224,7 +6296,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="6"/>
+      <c r="B307" s="7"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -6232,15 +6304,15 @@
       <c r="G307" s="30"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="1:8" s="2" customFormat="1">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="34"/>
-      <c r="H308" s="4"/>
+    <row r="308" spans="1:8">
+      <c r="A308" s="7"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="30"/>
+      <c r="H308" s="7"/>
     </row>
     <row r="309" spans="1:8" s="2" customFormat="1">
       <c r="A309" s="4"/>
@@ -6264,7 +6336,7 @@
     </row>
     <row r="311" spans="1:8" s="2" customFormat="1">
       <c r="A311" s="4"/>
-      <c r="B311" s="19"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="9"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -6314,8 +6386,8 @@
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
-      <c r="B316" s="26"/>
-      <c r="C316" s="4"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="9"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -6364,7 +6436,7 @@
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="21"/>
+      <c r="B321" s="26"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -6414,7 +6486,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="19"/>
+      <c r="B326" s="21"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -6424,7 +6496,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="21"/>
+      <c r="B327" s="19"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -6434,7 +6506,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -6442,20 +6514,20 @@
       <c r="G328" s="34"/>
       <c r="H328" s="4"/>
     </row>
-    <row r="329" spans="1:8">
-      <c r="A329" s="7"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7"/>
-      <c r="F329" s="7"/>
-      <c r="G329" s="30"/>
-      <c r="H329" s="7"/>
+    <row r="329" spans="1:8" s="2" customFormat="1">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="34"/>
+      <c r="H329" s="4"/>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
-      <c r="C330" s="4"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
@@ -6524,7 +6596,7 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="7"/>
       <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
@@ -6535,7 +6607,7 @@
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="7"/>
+      <c r="C338" s="4"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
@@ -6544,7 +6616,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="6"/>
+      <c r="B339" s="4"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -6554,7 +6626,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
+      <c r="B340" s="6"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -6564,7 +6636,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="22"/>
+      <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -6574,7 +6646,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="22"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -6614,7 +6686,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="6"/>
+      <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -6624,7 +6696,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -6634,7 +6706,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="20"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -6664,7 +6736,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="22"/>
+      <c r="B351" s="20"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -6674,7 +6746,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="20"/>
+      <c r="B352" s="22"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -6694,7 +6766,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="22"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -6704,7 +6776,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="20"/>
+      <c r="B355" s="22"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -6714,7 +6786,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -6724,7 +6796,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -6754,7 +6826,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -6764,7 +6836,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="27"/>
+      <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -6774,7 +6846,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="22"/>
+      <c r="B362" s="27"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -6784,8 +6856,8 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
-      <c r="C363" s="4"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
@@ -6794,7 +6866,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="20"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="4"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -6824,7 +6896,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="4"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -6854,7 +6926,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="20"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -6874,8 +6946,8 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
-      <c r="C372" s="7"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
@@ -6884,7 +6956,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="6"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -6894,7 +6966,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="6"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -6954,7 +7026,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="6"/>
+      <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -6964,7 +7036,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -6985,7 +7057,7 @@
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
-      <c r="C383" s="4"/>
+      <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
@@ -6994,7 +7066,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="20"/>
+      <c r="B384" s="7"/>
       <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -7005,7 +7077,7 @@
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
       <c r="B385" s="20"/>
-      <c r="C385" s="7"/>
+      <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -7014,7 +7086,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="27"/>
+      <c r="B386" s="20"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -7024,7 +7096,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="22"/>
+      <c r="B387" s="27"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -7074,7 +7146,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="22"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -7084,7 +7156,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="6"/>
+      <c r="B393" s="7"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -7094,7 +7166,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -7104,7 +7176,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="20"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -7114,7 +7186,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="22"/>
+      <c r="B396" s="20"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -7134,7 +7206,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="20"/>
+      <c r="B398" s="22"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -7174,7 +7246,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="20"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -7184,7 +7256,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="20"/>
+      <c r="B403" s="7"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -7204,7 +7276,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="22"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -7214,7 +7286,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="22"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -7224,7 +7296,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="6"/>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -7234,7 +7306,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="6"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -7254,7 +7326,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -7264,7 +7336,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7274,7 +7346,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="20"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -7294,7 +7366,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="20"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7304,7 +7376,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7314,7 +7386,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -7364,7 +7436,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -7374,7 +7446,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -7434,7 +7506,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -7444,7 +7516,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -7464,7 +7536,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="6"/>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -7474,7 +7546,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="4"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -7494,7 +7566,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="4"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -7524,7 +7596,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -7534,8 +7606,8 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
-      <c r="C438" s="4"/>
+      <c r="B438" s="6"/>
+      <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
@@ -7585,7 +7657,7 @@
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
-      <c r="C443" s="7"/>
+      <c r="C443" s="4"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
@@ -7594,7 +7666,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="7"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -7604,8 +7676,8 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
-      <c r="C445" s="4"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -7645,7 +7717,7 @@
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
-      <c r="C449" s="7"/>
+      <c r="C449" s="4"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -7654,7 +7726,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -7664,7 +7736,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="22"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -7724,7 +7796,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
+      <c r="B457" s="22"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -7734,7 +7806,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="6"/>
+      <c r="B458" s="7"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -7744,7 +7816,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="22"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -7773,8 +7845,8 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="6"/>
-      <c r="B462" s="7"/>
+      <c r="A462" s="7"/>
+      <c r="B462" s="22"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -7783,7 +7855,7 @@
       <c r="H462" s="7"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="7"/>
+      <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
@@ -7824,7 +7896,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="28"/>
+      <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -7854,7 +7926,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
+      <c r="B470" s="28"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -7864,7 +7936,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="28"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -7874,7 +7946,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="28"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -7884,21 +7956,21 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="29"/>
-      <c r="C473" s="30"/>
+      <c r="B473" s="7"/>
+      <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="29"/>
+      <c r="F473" s="7"/>
       <c r="G473" s="30"/>
       <c r="H473" s="7"/>
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
-      <c r="C474" s="7"/>
+      <c r="B474" s="29"/>
+      <c r="C474" s="30"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
-      <c r="F474" s="7"/>
+      <c r="F474" s="29"/>
       <c r="G474" s="30"/>
       <c r="H474" s="7"/>
     </row>
@@ -11802,13 +11874,23 @@
       <c r="G864" s="30"/>
       <c r="H864" s="7"/>
     </row>
+    <row r="865" spans="1:8">
+      <c r="A865" s="7"/>
+      <c r="B865" s="7"/>
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+      <c r="E865" s="7"/>
+      <c r="F865" s="7"/>
+      <c r="G865" s="30"/>
+      <c r="H865" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G50" formulaRange="1"/>
+    <ignoredError sqref="G51" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
